--- a/[TEC]/!PARCIAL 1 TEC/Punto2.xlsx
+++ b/[TEC]/!PARCIAL 1 TEC/Punto2.xlsx
@@ -132,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,9 +257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,7 +280,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -285,6 +292,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -580,21 +592,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="18" t="s">
         <v>10</v>
@@ -645,24 +660,27 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="15">
+      <c r="D5" s="7" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="E5" s="14">
         <v>5000</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f>1+C20</f>
         <v>100001</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="str">
+      <c r="B6" s="11" t="str">
         <f>(ROUND(C6/1000,0))&amp;" Kbps &gt;"</f>
         <v>83 Kbps &gt;</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <f>E6*F6</f>
         <v>83048.274506575443</v>
       </c>
@@ -670,7 +688,7 @@
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f>E5</f>
         <v>5000</v>
       </c>
@@ -679,14 +697,14 @@
         <v>16.609654901315089</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+    <row r="7" spans="1:7" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="32.25" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="18" t="s">
@@ -723,24 +741,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E11" s="17">
+    <row r="10" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="7" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="E11" s="16">
         <f>E5*2</f>
         <v>10000</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="str">
+      <c r="B12" s="11" t="str">
         <f>(ROUND(C12/1000,0))&amp;" Kbps &gt;"</f>
         <v>40 Kbps &gt;</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <f>E12*F12</f>
         <v>40000</v>
       </c>
@@ -748,7 +771,7 @@
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <f>E11</f>
         <v>10000</v>
       </c>
@@ -757,17 +780,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+    <row r="13" spans="1:7" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="32.25" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -787,8 +810,9 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>50</v>
       </c>
       <c r="D16" s="7" t="str">
@@ -805,7 +829,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="2">
         <f>C16/E16</f>
         <v>5</v>
@@ -821,8 +846,9 @@
         <v>15</v>
       </c>
     </row>
+    <row r="19" spans="3:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <f>10^C18</f>
         <v>100000</v>
       </c>
